--- a/Compta.xlsx
+++ b/Compta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\EXIA\Projets\projet A1 Ces'Esport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\Projet-Exia-Ces-Esport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Bénéfices potentiels</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Joueurs x500</t>
   </si>
   <si>
-    <t>Visiteurs (prévision 0)</t>
-  </si>
-  <si>
     <t>Location stand</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>Point d'accès sans fil</t>
+  </si>
+  <si>
+    <t>Technicien éclairage/son</t>
+  </si>
+  <si>
+    <t>Visiteurs (prévision 2 500)</t>
   </si>
 </sst>
 </file>
@@ -566,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378898B-8846-43DA-9719-46C3C07450B7}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -622,7 +625,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -651,7 +654,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="8">
@@ -676,114 +679,123 @@
         <v>20952</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
-        <v>1520</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8">
-        <v>1520</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <v>3020</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10">
+      <c r="B15" s="6"/>
+      <c r="C15" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>2500</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>1000</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7500</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7">
         <v>15000</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
-        <v>6300</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9">
-        <f>SUM(B2:B22)</f>
-        <v>24800</v>
-      </c>
-      <c r="C23" s="9">
-        <f>SUM(C2:C22)</f>
-        <v>49832.25</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7000</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <f>SUM(B2:B23)</f>
+        <v>54500</v>
+      </c>
+      <c r="C24" s="9">
+        <f>SUM(C2:C23)</f>
+        <v>51532.25</v>
       </c>
     </row>
   </sheetData>
